--- a/excel files/PatientData.xlsx
+++ b/excel files/PatientData.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codez\uni projects\hospital system my work\excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C117C20E-C98E-45B6-A6A2-E891CF2EFC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2715F4-52F1-44B1-91E4-0FDB4E9289DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical history" sheetId="1" r:id="rId1"/>
     <sheet name="Emergency contact" sheetId="2" r:id="rId2"/>
     <sheet name="Patient data" sheetId="3" r:id="rId3"/>
-    <sheet name="Nurse visits" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -34,16 +33,19 @@
     <t>Disease</t>
   </si>
   <si>
-    <t>NS</t>
+    <t xml:space="preserve">Diabetes </t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
+    <t>Type 1</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Moahmoud Hamada</t>
+    <t>Mahmoud Hamada</t>
   </si>
   <si>
     <t>Brother</t>
@@ -103,6 +105,18 @@
     <t>Recet</t>
   </si>
   <si>
+    <t>DoctorReport</t>
+  </si>
+  <si>
+    <t>RadiologistReport</t>
+  </si>
+  <si>
+    <t>NurseReport</t>
+  </si>
+  <si>
+    <t>PharmacistReport</t>
+  </si>
+  <si>
     <t>Hamdy Hamada</t>
   </si>
   <si>
@@ -112,10 +126,10 @@
     <t>01-Jun-81</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>married</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Married</t>
   </si>
   <si>
     <t>Egypt - Cairo - Shobra Alkheima</t>
@@ -127,22 +141,42 @@
     <t>cold</t>
   </si>
   <si>
-    <t>none</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation_x0009_:_x0009_0
+Medical X-ray_x0009_:_x0009_0
+Medecin_x0009_:_x0009_50
+Service_x0009_:_x0009_20
+Others_x0009_:_x0009_10
+Total_x0009_:_x0009_$80.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Name: Hamdy Hamada
+PatientID: 1
+Doctor Report: Stick to hot drinks, May need a pain killer before sleeping
+Doctor: Menna-Allah Ragab
+Date: 06-Jul-24 2:23 AM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Name: Hamdy Hamada
+PatientID: 1
+Radiologist Report: No Medical X-rayes needed
+Radiologist: Sara Khamees
+Date: 06-Jul-24 2:27 AM
+</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Visit</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t xml:space="preserve">Patient Name: Hamdy Hamada
+PatientID: 1
+Pharmacist Report: Brufen: 1
+Pharmacist: Faten Mohamed
+Date: 06-Jul-24 2:30 AM
+</t>
   </si>
 </sst>
 </file>
@@ -150,7 +184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -171,25 +205,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,12 +227,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -226,13 +241,7 @@
     <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,38 +561,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -596,34 +601,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -634,194 +637,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="2">
-        <v>97</v>
-      </c>
-      <c r="K2" s="2">
-        <v>179</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="J2" s="1">
+        <v>83</v>
+      </c>
+      <c r="K2" s="1">
+        <v>179</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
+      <c r="N2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>80</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
